--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 45-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 45-2022.xlsx", "A 45-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 45-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 45-2022.png", "A 45-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 45-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 45-2022.docx", "A 45-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 45-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 45-2022.docx", "A 45-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 45-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 45-2022.docx", "A 45-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 45-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 45-2022.docx", "A 45-2022")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,27 +721,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 18589-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 18589-2022.xlsx", "A 18589-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 18589-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 18589-2022.png", "A 18589-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 18589-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 18589-2022.docx", "A 18589-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 18589-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 18589-2022.docx", "A 18589-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 18589-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 18589-2022.docx", "A 18589-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 18589-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 18589-2022.docx", "A 18589-2022")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -808,27 +808,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 19986-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 19986-2019.xlsx", "A 19986-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 19986-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 19986-2019.png", "A 19986-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 19986-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 19986-2019.docx", "A 19986-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 19986-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 19986-2019.docx", "A 19986-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 19986-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 19986-2019.docx", "A 19986-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 19986-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 19986-2019.docx", "A 19986-2019")</f>
         <v/>
       </c>
     </row>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 39121-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 39121-2021.xlsx", "A 39121-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 39121-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 39121-2021.png", "A 39121-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 39121-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 39121-2021.docx", "A 39121-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 39121-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 39121-2021.docx", "A 39121-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 39121-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 39121-2021.docx", "A 39121-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 39121-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 39121-2021.docx", "A 39121-2021")</f>
         <v/>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,27 +985,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 55072-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 55072-2022.xlsx", "A 55072-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 55072-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 55072-2022.png", "A 55072-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 55072-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 55072-2022.docx", "A 55072-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 55072-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 55072-2022.docx", "A 55072-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 55072-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 55072-2022.docx", "A 55072-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 55072-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 55072-2022.docx", "A 55072-2022")</f>
         <v/>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1070,27 +1070,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 34756-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 34756-2020.xlsx", "A 34756-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 34756-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 34756-2020.png", "A 34756-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 34756-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 34756-2020.docx", "A 34756-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 34756-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 34756-2020.docx", "A 34756-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 34756-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 34756-2020.docx", "A 34756-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 34756-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 34756-2020.docx", "A 34756-2020")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1155,27 +1155,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 45802-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/artfynd/A 45802-2022.xlsx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 45802-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/kartor/A 45802-2022.png", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 45802-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomål/A 45802-2022.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 45802-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/klagomålsmail/A 45802-2022.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 45802-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsyn/A 45802-2022.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 45802-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIMRISHAMN/tillsynsmail/A 45802-2022.docx", "A 45802-2022")</f>
         <v/>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="R50" s="2" t="inlineStr"/>
     </row>
-    <row r="51">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
           <t>A 39238-2023</t>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3689,6 +3689,63 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>A 43792-2023</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="R51" s="2" t="inlineStr"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
           <t>A 43792-2023</t>
@@ -3700,7 +3700,7 @@
         <v>45187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3746,6 +3746,63 @@
         <v>0</v>
       </c>
       <c r="R52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>A 44934-2023</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45190</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45190</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45190</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45190</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44564</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43567</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44412</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44886</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43388</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>43441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43580</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43613</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43720</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43770</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43773</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43822</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43896</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43907</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44218</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44218</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44606</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44684</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44720</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44802</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44876</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44937</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44971</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45089</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45092</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="R52" s="2" t="inlineStr"/>
     </row>
-    <row r="53">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
           <t>A 44934-2023</t>
@@ -3757,7 +3757,7 @@
         <v>45190</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3803,6 +3803,68 @@
         <v>0</v>
       </c>
       <c r="R53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>A 47874-2023</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
